--- a/medicine/Enfance/Ursula_Vernon/Ursula_Vernon.xlsx
+++ b/medicine/Enfance/Ursula_Vernon/Ursula_Vernon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ursula Vernon, née le 28 mai 1977 à Pittsboro en Caroline du Nord, est une romancière, nouvelliste, auteure de bande dessinée et illustratrice américaine de fantasy. Elle est essentiellement connue pour sa bande dessinée en ligne Digger (en) ainsi que ses séries de littérature d'enfance et de jeunesse, mais également, sous le nom de plume T. Kingfisher, pour ses romans dédiés à un public adulte.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,12 +553,58 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sous le nom Ursula Vernon
-Série Black Dogs
-(en) The House of Diamond, 2007
-(en) The Mountain of Iron, 2011
-Série Dragonbreath
-(en) Dragonbreath, 2009
+          <t>Sous le nom Ursula Vernon</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Black Dogs</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) The House of Diamond, 2007
+(en) The Mountain of Iron, 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ursula_Vernon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ursula_Vernon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous le nom Ursula Vernon</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Dragonbreath</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Dragonbreath, 2009
 (en) Attack of the Ninja Frogs, 2010
 (en) Curse of the Were-Wiener, 2010
 (en) Lair of the Bat Monster, 2011
@@ -554,33 +614,298 @@
 (en) Nightmare of the Iguana, 2013
 (en) The Case of the Toxic Mutants, 2013
 (en) Knight-Napped!, 2015
-(en) The Frozen Menace, 2016
-Série Princesse Henriette
-Hamster au bois mordant, Milan, 2017 ((en) Harriet the Invincible, 2015), trad. Anath Riveline, 248 p.  (ISBN 978-2-7459-9100-3)
+(en) The Frozen Menace, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ursula_Vernon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ursula_Vernon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous le nom Ursula Vernon</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Princesse Henriette</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hamster au bois mordant, Milan, 2017 ((en) Harriet the Invincible, 2015), trad. Anath Riveline, 248 p.  (ISBN 978-2-7459-9100-3)
 Le Bal des douze souris, Milan, 2017 ((en) Of Mice and Magic, 2016), trad. Anath Riveline, 230 p.  (ISBN 978-2-7459-9101-0)
 Ratponce, Milan, 2018 ((en) Ratpunzel, 2016), trad. Anath Riveline, 233 p.  (ISBN 978-2-7459-9102-7)
 (en) Giant Trouble, 2017
 (en) Whiskerella, 2018
-(en) Little Red Rodent Hood, 2018
-Romans indépendants
-(en) Nurk: The Strange, Surprising Adventures of a (Somewhat) Brave Shrew, 2008
-(en) Castle Hangnail, 2015Prix Mythopoeic 2016
-Bande dessinée
-Digger (en), 2003-2011Prix Hugo de la meilleure histoire graphique 2012 et prix Mythopoeic 2013
-Sous le nom T. Kingfisher
-Série Clocktaur War
-(en) Clockwork Boys, 2017
-(en) The Wonder Engine, 2018
-Série The Saint of Steel
-(en) Paladin's Grace, 2020
+(en) Little Red Rodent Hood, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ursula_Vernon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ursula_Vernon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous le nom Ursula Vernon</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Nurk: The Strange, Surprising Adventures of a (Somewhat) Brave Shrew, 2008
+(en) Castle Hangnail, 2015Prix Mythopoeic 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ursula_Vernon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ursula_Vernon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous le nom Ursula Vernon</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Digger (en), 2003-2011Prix Hugo de la meilleure histoire graphique 2012 et prix Mythopoeic 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ursula_Vernon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ursula_Vernon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sous le nom T. Kingfisher</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Clocktaur War</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(en) Clockwork Boys, 2017
+(en) The Wonder Engine, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ursula_Vernon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ursula_Vernon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous le nom T. Kingfisher</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Série The Saint of Steel</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(en) Paladin's Grace, 2020
 (en) Paladin's Strength, 2021
 (en) Paladin's Hope, 2021
-(en) Paladin's Faith, 2023, 422 p.  (ISBN 9781614506096)
-Série Sworn Soldier
-(en) What Moves the Dead, 2022Prix Locus du meilleur roman d'horreur 2023
-(en) What Feasts at Night, 2024
-Romans indépendants
-(en) Nine Goblins, 2013
+(en) Paladin's Faith, 2023, 422 p.  (ISBN 9781614506096)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ursula_Vernon</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ursula_Vernon</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sous le nom T. Kingfisher</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Série Sworn Soldier</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(en) What Moves the Dead, 2022Prix Locus du meilleur roman d'horreur 2023
+(en) What Feasts at Night, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ursula_Vernon</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ursula_Vernon</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sous le nom T. Kingfisher</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(en) Nine Goblins, 2013
 (en) The Seventh Bride, 2014
 (en) Bryony and Roses, 2015
 (en) The Raven and the Reindeer, 2016
@@ -592,9 +917,47 @@
 (en) The Hollow Places, 2020
 (en) Nettle &amp; Bone, 2022Prix Hugo du meilleur roman 2023
 (en) A House With Good Bones, 2023
-(en) Thornhedge, 2023
-Recueils de nouvelles
-(en) Toad Words and Other Stories, 2014
+(en) Thornhedge, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ursula_Vernon</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ursula_Vernon</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sous le nom T. Kingfisher</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(en) Toad Words and Other Stories, 2014
 (en) The Halcyon Fairy Book, 2017
 (en) Jackalope Wives and Other Stories, 2017</t>
         </is>
